--- a/Data/EC/NIT-8060130247.xlsx
+++ b/Data/EC/NIT-8060130247.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{79E54299-B8A6-4A52-BC90-3E21E67301F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7114800-14C5-4E74-A265-9601571E8D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8699E9ED-7DA9-4599-B264-3CF4E6F6D003}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{774D8616-8A54-4CE5-ABB1-18143FAB800E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,25 +71,25 @@
     <t>ALEX EMEL HERRERA FONTALVO</t>
   </si>
   <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
     <t>2305</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2311</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -503,7 +503,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74A34912-EF39-07DD-858E-DB877F0B0F68}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F748DB57-FAD4-7A19-BDDB-D163F8129DEA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -854,7 +854,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24B54A4D-2C8D-4BF4-A8B8-14E48ACF7AFD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFF4E2D7-84D7-4198-AEF8-A73E82BA37DB}">
   <dimension ref="B2:J28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1032,7 +1032,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>40214</v>
+        <v>43307</v>
       </c>
       <c r="G16" s="18">
         <v>1160000</v>
@@ -1170,7 +1170,7 @@
         <v>17</v>
       </c>
       <c r="F22" s="24">
-        <v>43307</v>
+        <v>40214</v>
       </c>
       <c r="G22" s="24">
         <v>1160000</v>
